--- a/fixtures/xlsx/metadata/defined-names.xlsx
+++ b/fixtures/xlsx/metadata/defined-names.xlsx
@@ -7,6 +7,7 @@
   <definedNames>
     <definedName name="ZedName">Sheet1!$B$1</definedName>
     <definedName name="MyRange">Sheet1!$A$1:$A$1</definedName>
+    <definedName name="ErrName">#N/A</definedName>
   </definedNames>
 </workbook>
 </file>
